--- a/Present data/analysis/vr_threshold_ac.xlsx
+++ b/Present data/analysis/vr_threshold_ac.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="168" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="210" uniqueCount="21">
   <si>
     <t>subID</t>
   </si>

--- a/Present data/analysis/vr_threshold_ac.xlsx
+++ b/Present data/analysis/vr_threshold_ac.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="210" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="357" uniqueCount="21">
   <si>
     <t>subID</t>
   </si>
@@ -442,10 +442,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="true"/>
-    <col min="2" max="2" width="16" customWidth="true"/>
-    <col min="3" max="3" width="15.88671875" customWidth="true"/>
-    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="1" max="1" width="14" customWidth="true"/>
+    <col min="2" max="2" width="17.5703125" customWidth="true"/>
+    <col min="3" max="3" width="17.5703125" customWidth="true"/>
+    <col min="4" max="4" width="16.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Present data/analysis/vr_threshold_ac.xlsx
+++ b/Present data/analysis/vr_threshold_ac.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="357" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="378" uniqueCount="21">
   <si>
     <t>subID</t>
   </si>

--- a/Present data/analysis/vr_threshold_ac.xlsx
+++ b/Present data/analysis/vr_threshold_ac.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="378" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="21">
   <si>
     <t>subID</t>
   </si>
@@ -442,10 +442,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="true"/>
-    <col min="2" max="2" width="17.5703125" customWidth="true"/>
-    <col min="3" max="3" width="17.5703125" customWidth="true"/>
-    <col min="4" max="4" width="16.5703125" customWidth="true"/>
+    <col min="1" max="1" width="13.33203125" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="3" width="15.88671875" customWidth="true"/>
+    <col min="4" max="4" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Present data/analysis/vr_threshold_ac.xlsx
+++ b/Present data/analysis/vr_threshold_ac.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="378" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="756" uniqueCount="21">
   <si>
     <t>subID</t>
   </si>
